--- a/Meanings.xlsx
+++ b/Meanings.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -2838,6 +2838,166 @@
         </is>
       </c>
       <c r="D124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>desultory</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unplanned</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>permiditated</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> planned</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>tractable</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> controllable</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>fleeting</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> short lived</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>mitigate</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> assauge or alleviate</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>transgressions</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> sins</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>nonplussed</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> confounded</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>unviable</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unsuccessful</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/Meanings.xlsx
+++ b/Meanings.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -2998,6 +2998,286 @@
         </is>
       </c>
       <c r="D132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>vestige</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> trace of something that existed in past</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ornate</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> decorated</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>lucid</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> clear</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>semblance</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> outward form of something</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>trunculent</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> aggresive</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simpering</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> artificial smile</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>snide</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> insulting</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>affable</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> friendly</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>serene</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> calm</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>pristine</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> untouched</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>fecklessness</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>idleness</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>pastoral</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> grazing grounds</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>precis</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> summary</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>derelict</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> not doing duties</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/Meanings.xlsx
+++ b/Meanings.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>austhetic</t>
+          <t>alacrity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>enthusiasm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>alacrity</t>
+          <t>ameliorate</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>enthusiasm</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ameliorate</t>
+          <t>anachronism</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>error in chronology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>anachronism</t>
+          <t>anomalous</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>error in chronology</t>
+          <t>strange</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>anarachy</t>
+          <t>antipath</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>disorder</t>
+          <t xml:space="preserve"> dislike</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>anomalous</t>
+          <t>aggrevate</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>strange</t>
+          <t xml:space="preserve"> arouse</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>antipath</t>
+          <t>apprise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dislike</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>aggrevate</t>
+          <t>approbation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> arouse</t>
+          <t>praise</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>apprise</t>
+          <t>ardous</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -669,12 +669,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>approbation</t>
+          <t>artless</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>praise</t>
+          <t>frank</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ardous</t>
+          <t>assidous</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>industriuos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>artless</t>
+          <t>assuage</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>frank</t>
+          <t xml:space="preserve"> relieve or alleviate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>assidous</t>
+          <t>attenuate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>industriuos</t>
+          <t xml:space="preserve"> make thin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>assuage</t>
+          <t>audacious</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> relieve or alleviate</t>
+          <t xml:space="preserve"> brazeness</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>attenuate</t>
+          <t>austeric</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> make thin</t>
+          <t xml:space="preserve"> ascetic</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>audacious</t>
+          <t>appease</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> brazeness</t>
+          <t xml:space="preserve"> calm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>austeric</t>
+          <t>abstemious</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ascetic</t>
+          <t xml:space="preserve"> non indulgent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>appease</t>
+          <t>aver</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> calm</t>
+          <t>assert</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>abstemious</t>
+          <t>banal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> non indulgent</t>
+          <t xml:space="preserve"> boring</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>aver</t>
+          <t>bombastic</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>assert</t>
+          <t xml:space="preserve"> pompous</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>banal</t>
+          <t>benificient</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> boring</t>
+          <t>doinf something charitable</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bombastic</t>
+          <t>boorish</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pompous</t>
+          <t>crude</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>benificient</t>
+          <t>burgeon</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>doinf something charitable</t>
+          <t>expand</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>boorish</t>
+          <t>burnish</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>crude</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>burgeon</t>
+          <t>buttress</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>expand</t>
+          <t>support</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>burnish</t>
+          <t>cacophonus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>unplesant</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>buttress</t>
+          <t>capricious</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cacophonus</t>
+          <t>discredited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>unplesant</t>
+          <t>defamed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>capricious</t>
+          <t>digression</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t xml:space="preserve"> diversion</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>discredited</t>
+          <t>discreet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>defamed</t>
+          <t xml:space="preserve"> careful</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>digression</t>
+          <t>disabuse</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> diversion</t>
+          <t xml:space="preserve"> dillusion</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>discreet</t>
+          <t>divest</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> careful</t>
+          <t xml:space="preserve"> deprive</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>disabuse</t>
+          <t>dirge</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dillusion</t>
+          <t>lament</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>divest</t>
+          <t>dogmatic</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> deprive</t>
+          <t>stubborn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dirge</t>
+          <t>feign</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>lament</t>
+          <t>faking</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dogmatic</t>
+          <t>unequivocal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>stubborn</t>
+          <t>very clear</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>feign</t>
+          <t>underpin</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>faking</t>
+          <t xml:space="preserve"> support</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>unequivocal</t>
+          <t>erudite</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>very clear</t>
+          <t xml:space="preserve"> having great knowledge</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>underpin</t>
+          <t>cede</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> support</t>
+          <t>give up</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>erudite</t>
+          <t>hobbled</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> having great knowledge</t>
+          <t xml:space="preserve"> heldback or hamstrung</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cede</t>
+          <t>parsimony</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>give up</t>
+          <t xml:space="preserve"> miser</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>hobbled</t>
+          <t>perfidy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> heldback or hamstrung</t>
+          <t xml:space="preserve"> deciet</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>parsimony</t>
+          <t>candour</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> miser</t>
+          <t xml:space="preserve"> honest</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1349,12 +1349,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>perfidy</t>
+          <t>brazeness</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> deciet</t>
+          <t xml:space="preserve"> daringly doing wrong thing</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>candour</t>
+          <t>stridency</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> honest</t>
+          <t xml:space="preserve"> harsh sound</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>brazeness</t>
+          <t>evasive</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daringly doing wrong thing</t>
+          <t xml:space="preserve"> indirect</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>stridency</t>
+          <t>candidly</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> harsh sound</t>
+          <t xml:space="preserve"> frankly</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>evasive</t>
+          <t>precariuosness</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> indirect</t>
+          <t xml:space="preserve"> uncertainess</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>candidly</t>
+          <t>contentious</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> frankly</t>
+          <t xml:space="preserve"> controversial</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>precariuosness</t>
+          <t>shun</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> uncertainess</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>contentious</t>
+          <t>labyrithene</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> controversial</t>
+          <t xml:space="preserve"> maze</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>shun</t>
+          <t>rambling</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t xml:space="preserve"> lengthy and confusing</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>labyrithene</t>
+          <t>terse</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> maze</t>
+          <t xml:space="preserve"> straight to the point</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rambling</t>
+          <t>aphorism</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> lengthy and confusing</t>
+          <t xml:space="preserve"> short sayings</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>terse</t>
+          <t>confounded</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> straight to the point</t>
+          <t xml:space="preserve"> confused</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>aphorism</t>
+          <t>placated</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> short sayings</t>
+          <t xml:space="preserve"> apease</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>confounded</t>
+          <t>vilified</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> confused</t>
+          <t xml:space="preserve"> defamed</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>placated</t>
+          <t>bucolic</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> apease</t>
+          <t xml:space="preserve"> beautiful in a rural sense</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vilified</t>
+          <t>belie</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> defamed</t>
+          <t xml:space="preserve"> coverup</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1669,12 +1669,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bucolic</t>
+          <t>tipid</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> beautiful in a rural sense</t>
+          <t xml:space="preserve"> luke warm</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>belie</t>
+          <t>messianic</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> coverup</t>
+          <t xml:space="preserve"> mussiha</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tipid</t>
+          <t>hushed</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> luke warm</t>
+          <t xml:space="preserve"> quiet</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>messianic</t>
+          <t>reverential</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mussiha</t>
+          <t xml:space="preserve"> respected</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hushed</t>
+          <t>vanquish</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quiet</t>
+          <t xml:space="preserve"> defeat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>reverential</t>
+          <t>tantamount</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> respected</t>
+          <t xml:space="preserve"> same as</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vanquish</t>
+          <t>heresy</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> defeat</t>
+          <t xml:space="preserve"> having beliefs contrary to the orthodox ones</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tantamount</t>
+          <t>ostracize</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> same as</t>
+          <t xml:space="preserve"> alienate</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>heresy</t>
+          <t>hindsight</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> having beliefs contrary to the orthodox ones</t>
+          <t xml:space="preserve"> having understanding of the situation after it has happened</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ostracize</t>
+          <t>concot</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> alienate</t>
+          <t xml:space="preserve"> create</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>hindsight</t>
+          <t>inefficacy</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> having understanding of the situation after it has happened</t>
+          <t xml:space="preserve"> failure to acheive the desired results</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>concot</t>
+          <t>platitude</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> create</t>
+          <t xml:space="preserve"> cliche</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>inefficacy</t>
+          <t>undertones</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> failure to acheive the desired results</t>
+          <t xml:space="preserve"> whisper</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>platitude</t>
+          <t>pejoratives</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cliche</t>
+          <t xml:space="preserve"> strong negative words</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -1949,12 +1949,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>undertones</t>
+          <t>loath</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> whisper</t>
+          <t xml:space="preserve"> reluctant</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>pejoratives</t>
+          <t>unassilable</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> strong negative words</t>
+          <t xml:space="preserve"> undefeated</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>loath</t>
+          <t>forsake</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> reluctant</t>
+          <t xml:space="preserve"> abandon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>unassilable</t>
+          <t>insidous</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> undefeated</t>
+          <t xml:space="preserve"> progressing in a gentle but harmful way</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2029,12 +2029,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>forsake</t>
+          <t>meandering</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> abandon</t>
+          <t xml:space="preserve"> rambling</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>insidous</t>
+          <t>sated</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> progressing in a gentle but harmful way</t>
+          <t xml:space="preserve"> satisfied to the full</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>meandering</t>
+          <t>reluctant</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rambling</t>
+          <t xml:space="preserve"> not revealing one's thoughts</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sated</t>
+          <t>voracious</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> satisfied to the full</t>
+          <t xml:space="preserve"> very hungry</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>reluctant</t>
+          <t>penurious</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> not revealing one's thoughts</t>
+          <t xml:space="preserve"> very poor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>voracious</t>
+          <t>gregarious</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> very hungry</t>
+          <t xml:space="preserve"> social</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>penurious</t>
+          <t>peripatetic</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> very poor</t>
+          <t xml:space="preserve"> nomadic</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gregarious</t>
+          <t>itinerant</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social</t>
+          <t xml:space="preserve"> nomadic</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>peripatetic</t>
+          <t>languished</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> nomadic</t>
+          <t xml:space="preserve"> wasted away</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>itinerant</t>
+          <t>bleak</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> nomadic</t>
+          <t xml:space="preserve"> miserable</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2229,12 +2229,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>languished</t>
+          <t>cogent</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> wasted away</t>
+          <t xml:space="preserve"> persuasive</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2249,12 +2249,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bleak</t>
+          <t>saguine</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> miserable</t>
+          <t xml:space="preserve"> happy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cogent</t>
+          <t>wary</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> persuasive</t>
+          <t xml:space="preserve"> suspicious</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>saguine</t>
+          <t>haughty</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> happy</t>
+          <t xml:space="preserve"> look down on someone</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>wary</t>
+          <t>smitten</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> suspicious</t>
+          <t xml:space="preserve"> in love</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2329,12 +2329,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>haughty</t>
+          <t>conciliatory</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> look down on someone</t>
+          <t xml:space="preserve"> peace bringing efforts</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>smitten</t>
+          <t>timid</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> in love</t>
+          <t xml:space="preserve"> shy</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>conciliatory</t>
+          <t>plucky</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> peace bringing efforts</t>
+          <t xml:space="preserve"> having confidence</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>timid</t>
+          <t>steadfast</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> shy</t>
+          <t xml:space="preserve"> loyal</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>plucky</t>
+          <t>unseemly</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> having confidence</t>
+          <t xml:space="preserve"> inappropriate</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>steadfast</t>
+          <t>brusque</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> loyal</t>
+          <t xml:space="preserve"> rude</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2449,12 +2449,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>unseemly</t>
+          <t>perfunctory</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> inappropriate</t>
+          <t xml:space="preserve"> doing the job without any interest</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>brusque</t>
+          <t>pointed</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rude</t>
+          <t xml:space="preserve"> expressing criticism in a direct way</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>perfunctory</t>
+          <t>abstract</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> doing the job without any interest</t>
+          <t xml:space="preserve"> vague</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pointed</t>
+          <t>polemic</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> expressing criticism in a direct way</t>
+          <t xml:space="preserve"> impassioned argumentative attack</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2529,12 +2529,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>abstract</t>
+          <t>cynical</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vague</t>
+          <t xml:space="preserve"> selfish</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>polemic</t>
+          <t>forlon</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> impassioned argumentative attack</t>
+          <t xml:space="preserve"> very sad</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>cynical</t>
+          <t>ostentatious</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> selfish</t>
+          <t xml:space="preserve"> show off</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>forlon</t>
+          <t>posterity</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> very sad</t>
+          <t xml:space="preserve"> future generations</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ostentatious</t>
+          <t>necropolis</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> show off</t>
+          <t xml:space="preserve"> graveyard</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>posterity</t>
+          <t>bonaza</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> future generations</t>
+          <t xml:space="preserve"> sudden wealth and happiness</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>necropolis</t>
+          <t>contingent</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> graveyard</t>
+          <t xml:space="preserve"> subject to chance or dependent on</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bonaza</t>
+          <t>hackneyed</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sudden wealth and happiness</t>
+          <t xml:space="preserve"> unoriginal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>contingent</t>
+          <t>rollicking</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> subject to chance or dependent on</t>
+          <t xml:space="preserve"> exuberant</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>hackneyed</t>
+          <t>ephimeral</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> unoriginal</t>
+          <t xml:space="preserve"> short lived</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rollicking</t>
+          <t>wily</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> exuberant</t>
+          <t xml:space="preserve"> crafty</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ephimeral</t>
+          <t>benifactor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> short lived</t>
+          <t xml:space="preserve"> a person who helps others</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2769,12 +2769,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>wily</t>
+          <t>dissembler</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> crafty</t>
+          <t xml:space="preserve"> hypocrite</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2789,12 +2789,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>benifactor</t>
+          <t>whimsical</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a person who helps others</t>
+          <t xml:space="preserve"> playful</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>dissembler</t>
+          <t>desultory</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hypocrite</t>
+          <t xml:space="preserve"> unplanned</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2829,12 +2829,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>whimsical</t>
+          <t>permiditated</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> playful</t>
+          <t xml:space="preserve"> planned</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>desultory</t>
+          <t>tractable</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> unplanned</t>
+          <t xml:space="preserve"> controllable</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>permiditated</t>
+          <t>fleeting</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> planned</t>
+          <t xml:space="preserve"> short lived</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>tractable</t>
+          <t>mitigate</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> controllable</t>
+          <t xml:space="preserve"> assauge or alleviate</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>fleeting</t>
+          <t>transgressions</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> short lived</t>
+          <t xml:space="preserve"> sins</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2929,12 +2929,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>mitigate</t>
+          <t>nonplussed</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> assauge or alleviate</t>
+          <t xml:space="preserve"> confounded</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transgressions</t>
+          <t>unviable</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sins</t>
+          <t xml:space="preserve"> unsuccessful</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nonplussed</t>
+          <t>vestige</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> confounded</t>
+          <t xml:space="preserve"> trace of something that existed in past</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>unviable</t>
+          <t>ornate</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> unsuccessful</t>
+          <t xml:space="preserve"> decorated</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vestige</t>
+          <t>lucid</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> trace of something that existed in past</t>
+          <t xml:space="preserve"> clear</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ornate</t>
+          <t>semblance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> decorated</t>
+          <t xml:space="preserve"> outward form of something</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>lucid</t>
+          <t>trunculent</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> clear</t>
+          <t xml:space="preserve"> aggresive</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>semblance</t>
+          <t>simpering</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> outward form of something</t>
+          <t xml:space="preserve"> artificial smile</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>trunculent</t>
+          <t>snide</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aggresive</t>
+          <t xml:space="preserve"> insulting</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>simpering</t>
+          <t>affable</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> artificial smile</t>
+          <t xml:space="preserve"> friendly</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>snide</t>
+          <t>serene</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> insulting</t>
+          <t xml:space="preserve"> calm</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>affable</t>
+          <t>pristine</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> friendly</t>
+          <t xml:space="preserve"> untouched</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>serene</t>
+          <t>fecklessness</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> calm</t>
+          <t>idleness</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>pristine</t>
+          <t>pastoral</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> untouched</t>
+          <t xml:space="preserve"> grazing grounds</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>fecklessness</t>
+          <t>precis</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>idleness</t>
+          <t xml:space="preserve"> summary</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pastoral</t>
+          <t>derelict</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> grazing grounds</t>
+          <t xml:space="preserve"> not doing duties</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>precis</t>
+          <t>inveterate</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> summary</t>
+          <t xml:space="preserve"> habitual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3269,15 +3269,735 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>derelict</t>
+          <t>conducive</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> not doing duties</t>
+          <t xml:space="preserve"> contributing to</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>inimical</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hostile</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>foil</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> prevent something from happening</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>embellishments</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> decorations</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>indelible</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unremovable mark</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>bode</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> predicting outcome</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>inured</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unsensitized</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>amenable</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> doable</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>exaltation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> state of being happy; elevating someone to higher rank</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>myraid</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> countless</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>notoriety</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> famous in bad sense</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>finesse</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> impressive show of skill</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>affront</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> action that causes outrage</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>eyesore</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dirty building</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>stopgap</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> improvisation</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>edific</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> large building</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>edifice</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> large building</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>contrue</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> interpret</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>construe</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> interpret</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>endearing</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> inspiring affection</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>precipitate</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> reckless</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>churlish</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> rude</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>coyly</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> shy in outward manner</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>deteractor</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> critic</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>detractor</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> critic</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>posthumously</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> after death</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>hapless</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unfortunate</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>preminent</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> winner</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>preeminent</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> winner</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>sycophantic</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> obedient to get what you want</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>peripheral</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> secondary</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>obsequious</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> obedient</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>squelch</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> supress</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>formenting</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> provoking</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>fomenting</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> provoking</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>smothering</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> killing</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>condone</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> accepting negative behaviour</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
